--- a/04.Doc/03.测试/骨干管理系统_路人甲_问题跟踪表.xlsx
+++ b/04.Doc/03.测试/骨干管理系统_路人甲_问题跟踪表.xlsx
@@ -1,108 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="19770" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="问题跟踪" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>问题类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>问题描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进展跟踪</t>
   </si>
   <si>
     <t>问题提出人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>提出时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>责任人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>预计解决时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>实际解决时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进展跟踪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新发现</t>
+  </si>
+  <si>
+    <t>后台</t>
+  </si>
+  <si>
+    <t>师范的例子</t>
   </si>
   <si>
     <t>已解决</t>
-  </si>
-  <si>
-    <t>遗留</t>
-  </si>
-  <si>
-    <t>李剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙晓光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2018/11/27 11:00 问题验证通过
 2018/11/26 20:00 修改代码存在问题，需要重新测试
 2018/11/26 16:00 孙晓光定位出原因为业务逻辑实现错误
 2018/11/26 11:00 新发现问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>师范的例子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台</t>
+  </si>
+  <si>
+    <t>李剑</t>
+  </si>
+  <si>
+    <t>孙晓光</t>
+  </si>
+  <si>
+    <t>前台</t>
+  </si>
+  <si>
+    <t>接口人选项</t>
+  </si>
+  <si>
+    <t>新发现</t>
+  </si>
+  <si>
+    <t>罗帆</t>
+  </si>
+  <si>
+    <t>阮海涛</t>
+  </si>
+  <si>
+    <t>培训名称下拉不刷新</t>
+  </si>
+  <si>
+    <t>培训时间表格框太短</t>
+  </si>
+  <si>
+    <t>面授/在线后联动</t>
+  </si>
+  <si>
+    <t>开班设置时间检索</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -110,7 +116,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -118,11 +123,161 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,8 +290,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -146,60 +487,353 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
@@ -209,45 +843,15 @@
         <color rgb="FF006100"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.349986266670736"/>
         </patternFill>
       </fill>
     </dxf>
@@ -256,9 +860,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -307,7 +908,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,7 +943,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -545,33 +1146,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="37.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="13.25" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" ht="15" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -585,48 +1186,48 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" ht="99" x14ac:dyDescent="0.15">
+    <row r="2" ht="99" spans="1:10">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="7">
         <v>43430</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="7">
         <v>43431</v>
@@ -635,37 +1236,129 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="8"/>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="7">
+        <v>43452</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="8"/>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="7">
+        <v>43452</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="9">
+        <v>43452</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="9">
+        <v>43452</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="9">
+        <v>43452</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D$1:D$1048576">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"新发现"</formula>
     </cfRule>
@@ -677,13 +1370,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
       <formula1>"前台,后台"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"新发现,已解决,遗留"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/04.Doc/03.测试/骨干管理系统_路人甲_问题跟踪表.xlsx
+++ b/04.Doc/03.测试/骨干管理系统_路人甲_问题跟踪表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>索引</t>
   </si>
@@ -73,19 +73,22 @@
     <t>接口人选项</t>
   </si>
   <si>
+    <t>罗帆</t>
+  </si>
+  <si>
+    <t>阮海涛</t>
+  </si>
+  <si>
+    <t>培训名称下拉不刷新</t>
+  </si>
+  <si>
+    <t>培训时间表格框太短</t>
+  </si>
+  <si>
     <t>新发现</t>
   </si>
   <si>
-    <t>罗帆</t>
-  </si>
-  <si>
-    <t>阮海涛</t>
-  </si>
-  <si>
-    <t>培训名称下拉不刷新</t>
-  </si>
-  <si>
-    <t>培训时间表格框太短</t>
+    <t>浏览器兼容问题</t>
   </si>
   <si>
     <t>面授/在线后联动</t>
@@ -746,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -772,7 +775,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1155,7 +1164,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
@@ -1247,19 +1256,21 @@
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="7">
         <v>43452</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="I3" s="7">
+        <v>43452</v>
+      </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10">
@@ -1270,92 +1281,109 @@
         <v>16</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="7">
         <v>43452</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="I4" s="7">
+        <v>43452</v>
+      </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
+    <row r="5" spans="1:10">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="11">
+        <v>43452</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="9">
+      <c r="I5" s="11">
         <v>43452</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
+    <row r="6" spans="1:10">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="11">
+        <v>43452</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="9">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="11">
         <v>43452</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="9">
+      <c r="I7" s="11">
         <v>43452</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="J7" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D$1:D$1048576">

--- a/04.Doc/03.测试/骨干管理系统_路人甲_问题跟踪表.xlsx
+++ b/04.Doc/03.测试/骨干管理系统_路人甲_问题跟踪表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IsoftStone\CodeCompetition\04.Doc\03.测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BA6A92-C67A-437F-8134-C6F0711A41B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286EE271-5CF8-4C37-BA13-82667AE8EDA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19776" windowHeight="9396" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="59">
   <si>
     <t>索引</t>
   </si>
@@ -132,6 +132,104 @@
   <si>
     <t>培训简介和所属产品线改为非必填</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改评价维度之后，页面没有刷新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阮海涛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改评价维度之后，没有保存最后更新人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗帆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键角色设置的最后更新时间不对</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李剑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键角色修改，无法保存</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键角色无法删除，报500</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键角色是拿角色名称去重的么？现在只提示失败，用户不懂要怎么改啊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核规则查看报500</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核规则设置所属角色查询的下拉框改为输入框</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核规则设置，最后更新时间也不对</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核规则设置里，职级不是非必填的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加考核规则，输入不了最高分</t>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核规则，考虑加一个规则的名称吧，可以适配公共的培训</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开班设置的时间查询，控件里面的时分秒的展示框可以不要</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开班设置的时间查询，选择了时间之后不能确认</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间控件起始时间固定不了，选了截止时间，就把起始时间改成截止时间了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核事务设置里少一个评价角色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开班计划新增--填写部分内容后取消，再打开新增页面，上一次填写的内容没有清空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开班计划新增/编辑--开班形式的下拉框里加一个选项-“不限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开班计划展示--查看详情放到开班编号上吧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开班计划新增/编辑--讲师要考虑与公司员工信息关联，这样可以发送待办通知</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.开班计划编辑--打开后所属体系字段没有了</t>
   </si>
 </sst>
 </file>
@@ -210,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -256,6 +354,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -951,6 +1052,570 @@
         <v>43452</v>
       </c>
       <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="16">
+        <v>43454</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="16">
+        <v>43454</v>
+      </c>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="16">
+        <v>43454</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="16">
+        <v>43454</v>
+      </c>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="16">
+        <v>43454</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="16">
+        <v>43454</v>
+      </c>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="16">
+        <v>43454</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="16">
+        <v>43454</v>
+      </c>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="16">
+        <v>43454</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="16">
+        <v>43454</v>
+      </c>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="16">
+        <v>43454</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="16">
+        <v>43454</v>
+      </c>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="16">
+        <v>43454</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="16">
+        <v>43454</v>
+      </c>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="16">
+        <v>43454</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="16">
+        <v>43454</v>
+      </c>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="16">
+        <v>43454</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="16">
+        <v>43454</v>
+      </c>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="16">
+        <v>43454</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="16">
+        <v>43454</v>
+      </c>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="16">
+        <v>43454</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="16">
+        <v>43454</v>
+      </c>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="16">
+        <v>43454</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="16">
+        <v>43454</v>
+      </c>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="16">
+        <v>43454</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="16">
+        <v>43454</v>
+      </c>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="16">
+        <v>43454</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="16">
+        <v>43454</v>
+      </c>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="16">
+        <v>43454</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="16">
+        <v>43454</v>
+      </c>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="16">
+        <v>43454</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="16">
+        <v>43454</v>
+      </c>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>19</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="16">
+        <v>43454</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="16">
+        <v>43454</v>
+      </c>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>20</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="16">
+        <v>43454</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="16">
+        <v>43454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="16">
+        <v>43454</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="16">
+        <v>43454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="16">
+        <v>43454</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="16">
+        <v>43454</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>22</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="16">
+        <v>43454</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="16">
+        <v>43454</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/04.Doc/03.测试/骨干管理系统_路人甲_问题跟踪表.xlsx
+++ b/04.Doc/03.测试/骨干管理系统_路人甲_问题跟踪表.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IsoftStone\CodeCompetition\04.Doc\03.测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286EE271-5CF8-4C37-BA13-82667AE8EDA7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D35B07-A754-4EE7-A0BF-C3F8AA33F9FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19776" windowHeight="9396" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19776" windowHeight="9396" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="问题跟踪" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -229,7 +230,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>21.开班计划编辑--打开后所属体系字段没有了</t>
+    <t>开班计划编辑--打开后所属体系字段没有了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -428,6 +430,671 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>106681</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>350520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4191001</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2026710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF53EFC-E15F-4C5D-950E-6417825A8F96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="716281" y="350520"/>
+          <a:ext cx="4084320" cy="1676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>160019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6537960</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2186940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B198049E-9950-4227-B1A8-F12F79D1E6E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="693420" y="2354579"/>
+          <a:ext cx="6454140" cy="2026921"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6813346</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2499361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{200FA777-87F0-4C9F-B42B-3C0C1DE74D58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="708660" y="6880861"/>
+          <a:ext cx="6714286" cy="2430780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6370320</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2263140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8EE701-C692-4C18-8336-918C909F9C59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="716280" y="4564380"/>
+          <a:ext cx="6263640" cy="2110740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6972300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2065020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C75B0D3-B104-462F-85C7-BB25CBB8150E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="861060" y="11940540"/>
+          <a:ext cx="6720840" cy="1996440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6858000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2331720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E636AB34-1183-4951-BDE1-E31A2F61F888}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9502140"/>
+          <a:ext cx="6858000" cy="2331720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8381999</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1882141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F9778E-D496-4F0B-9A53-88D894E31FC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16139161"/>
+          <a:ext cx="8381999" cy="1882140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>342899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8625841</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B0BCFB0-8845-437C-9985-19EFA39235CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="18417539"/>
+          <a:ext cx="8625840" cy="1958341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7970520</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1697113</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA3FA2CC-6B42-49C0-8FA0-C4CB1EB2E058}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="701040" y="20406360"/>
+          <a:ext cx="7879080" cy="1643773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>45721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8564880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB5D7578-CFBD-4151-9856-BA3F451287DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="22113241"/>
+          <a:ext cx="8526780" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8610600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2438400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E73AFB-0922-492E-A9FD-4873C66278DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="25808940"/>
+          <a:ext cx="8458200" cy="2331720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8169548</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3093720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C214BCE-694A-48AA-99C7-57A033DC0631}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="807720" y="28971240"/>
+          <a:ext cx="7971428" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1120140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8054340</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1839999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C34176E-7D39-4366-B5CC-0C833258FC07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="830580" y="33550860"/>
+          <a:ext cx="7833360" cy="1847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8389620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3162300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3FE31CE-7D81-4662-A571-EC8682351F80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="35653980"/>
+          <a:ext cx="8328660" cy="3063240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8145780</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3354309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA6FC9E6-00A4-4B34-BECF-F9EB0DAE4CE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="662940" y="39052500"/>
+          <a:ext cx="8092440" cy="3171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -719,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1812,7 @@
         <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>27</v>
@@ -1163,7 +1830,7 @@
     </row>
     <row r="16" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
@@ -1191,7 +1858,7 @@
     </row>
     <row r="17" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
@@ -1218,7 +1885,7 @@
     </row>
     <row r="18" spans="1:10" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -1245,7 +1912,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -1272,7 +1939,7 @@
     </row>
     <row r="20" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
@@ -1299,7 +1966,7 @@
     </row>
     <row r="21" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>16</v>
@@ -1324,9 +1991,9 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>16</v>
@@ -1353,7 +2020,7 @@
     </row>
     <row r="23" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>48</v>
@@ -1380,7 +2047,7 @@
     </row>
     <row r="24" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>16</v>
@@ -1407,7 +2074,7 @@
     </row>
     <row r="25" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>16</v>
@@ -1434,7 +2101,7 @@
     </row>
     <row r="26" spans="1:10" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>16</v>
@@ -1461,7 +2128,7 @@
     </row>
     <row r="27" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>10</v>
@@ -1488,7 +2155,7 @@
     </row>
     <row r="28" spans="1:10" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>16</v>
@@ -1515,7 +2182,7 @@
     </row>
     <row r="29" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>16</v>
@@ -1541,7 +2208,7 @@
     </row>
     <row r="30" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>16</v>
@@ -1567,7 +2234,7 @@
     </row>
     <row r="31" spans="1:10" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>10</v>
@@ -1591,9 +2258,9 @@
         <v>43454</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>16</v>
@@ -1651,4 +2318,129 @@
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2650B92-ECF3-40AA-B879-A486E3DD20C5}">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="127.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="172.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="174.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="211.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="186.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="152.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="179.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="220.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="278.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="261" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="287.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>